--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3388A330-8917-4A5C-8C8F-D03C3E770544}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2D759126-ED79-490B-9652-34B6BD30BE79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18060" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18180" windowHeight="13800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>john456</t>
-  </si>
-  <si>
-    <t>mary456</t>
-  </si>
-  <si>
     <t>AmirKhan_@1234</t>
   </si>
   <si>
@@ -66,10 +60,16 @@
     <t>Tarlaci</t>
   </si>
   <si>
-    <t>ali4561</t>
-  </si>
-  <si>
     <t>AmirKhan_@1236</t>
+  </si>
+  <si>
+    <t>john4561ad</t>
+  </si>
+  <si>
+    <t>mary4561sd</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,10 +445,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,24 +459,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
